--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Rackett/Thomas_Rackett.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Rackett/Thomas_Rackett.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le révérend Thomas Rackett est un naturaliste britannique, né en 1756 et mort le 29 novembre 1840.
 Il devient membre de la Royal Society le 17 février 1803. Il fait paraître en 1832 à Londres A Description of Otterden Place and Church, and of the archiepiscopal palace at Charing, in the county of Kent. Accompanied by genealogical memoirs of the family of Wheler, etc.
